--- a/data_year/zb/社会服务/社会组织.xlsx
+++ b/data_year/zb/社会服务/社会组织.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,635 +488,368 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2200</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13164</v>
+      </c>
       <c r="D2" t="n">
-        <v>22654</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+        <v>198175</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2208050</v>
+      </c>
       <c r="F2" t="n">
-        <v>130668</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>245256</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3960704</v>
+      </c>
       <c r="H2" t="n">
-        <v>153322</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>445631</v>
+      </c>
+      <c r="I2" t="n">
+        <v>518.33429</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1628947</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6181918</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2614</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14141</v>
+      </c>
       <c r="D3" t="n">
-        <v>82134</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>204388</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2348326</v>
+      </c>
       <c r="F3" t="n">
-        <v>128805</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>254969</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3630298</v>
+      </c>
       <c r="H3" t="n">
-        <v>210939</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>461971</v>
+      </c>
+      <c r="I3" t="n">
+        <v>660</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1495862</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5992765</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3029</v>
+      </c>
+      <c r="C4" t="n">
+        <v>18686</v>
+      </c>
       <c r="D4" t="n">
-        <v>111212</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+        <v>225108</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2644621</v>
+      </c>
       <c r="F4" t="n">
-        <v>133297</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>271131</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3469467</v>
+      </c>
       <c r="H4" t="n">
-        <v>244509</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>499268</v>
+      </c>
+      <c r="I4" t="n">
+        <v>525.5599999999999</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1777824</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6132774</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>954</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>3549</v>
+      </c>
+      <c r="C5" t="n">
+        <v>18646</v>
+      </c>
       <c r="D5" t="n">
-        <v>124491</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
+        <v>254670</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2815532</v>
+      </c>
       <c r="F5" t="n">
-        <v>141167</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>289026</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3531635</v>
+      </c>
       <c r="H5" t="n">
-        <v>266612</v>
+        <v>547245</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1880817</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6365813</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>892</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>4117</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20394</v>
+      </c>
       <c r="D6" t="n">
-        <v>135181</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+        <v>292195</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3065964</v>
+      </c>
       <c r="F6" t="n">
-        <v>153359</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>309736</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3736265</v>
+      </c>
       <c r="H6" t="n">
-        <v>289432</v>
+        <v>606048</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>2003785</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6822623</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>975</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>4784</v>
+      </c>
+      <c r="C7" t="n">
+        <v>25028</v>
+      </c>
       <c r="D7" t="n">
-        <v>147637</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+        <v>329141</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3421015</v>
+      </c>
       <c r="F7" t="n">
-        <v>171150</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>328500</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3901849</v>
+      </c>
       <c r="H7" t="n">
-        <v>319762</v>
+        <v>662425</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>2241648</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7347892</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1144</v>
-      </c>
-      <c r="C8" t="n">
-        <v>15391</v>
-      </c>
+        <v>5559</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>161303</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1540476</v>
-      </c>
+        <v>360914</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>191946</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2695983</v>
-      </c>
+        <v>335932</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>354393</v>
-      </c>
-      <c r="I8" t="n">
-        <v>112.16681</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1062770</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4251850</v>
-      </c>
+        <v>702405</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1340</v>
-      </c>
-      <c r="C9" t="n">
-        <v>18269</v>
-      </c>
+        <v>6307</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>173915</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1664959</v>
-      </c>
+        <v>400438</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>211661</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2885287</v>
-      </c>
+        <v>354794</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>386916</v>
-      </c>
-      <c r="I9" t="n">
-        <v>307.57906</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1166211</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4568515</v>
-      </c>
+        <v>761539</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1597</v>
-      </c>
-      <c r="C10" t="n">
-        <v>10414</v>
-      </c>
+        <v>7034</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>182382</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1892060</v>
-      </c>
+        <v>444092</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>229681</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2855858</v>
-      </c>
+        <v>366234</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>413660</v>
-      </c>
-      <c r="I10" t="n">
-        <v>372.40181</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1406787</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4758332</v>
-      </c>
+        <v>817360</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1843</v>
-      </c>
-      <c r="C11" t="n">
-        <v>12000</v>
-      </c>
+        <v>7585</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>190479</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2078160</v>
-      </c>
+        <v>487112</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>238747</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3356506</v>
-      </c>
+        <v>371638</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>431069</v>
-      </c>
-      <c r="I11" t="n">
-        <v>493.0895</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1581352</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5446666</v>
-      </c>
+        <v>866335</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2200</v>
-      </c>
-      <c r="C12" t="n">
-        <v>13164</v>
-      </c>
+        <v>8432</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>198175</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2208050</v>
-      </c>
+        <v>510959</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>245256</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3960704</v>
-      </c>
+        <v>374771</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>445631</v>
-      </c>
-      <c r="I12" t="n">
-        <v>518.33429</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1628947</v>
-      </c>
-      <c r="K12" t="n">
-        <v>6181918</v>
-      </c>
+        <v>894162</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2614</v>
-      </c>
-      <c r="C13" t="n">
-        <v>14141</v>
-      </c>
+        <v>8877</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>204388</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2348326</v>
-      </c>
+        <v>521883</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>254969</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3630298</v>
-      </c>
+        <v>371110</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>461971</v>
-      </c>
-      <c r="I13" t="n">
-        <v>660</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1495862</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5992765</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3029</v>
-      </c>
-      <c r="C14" t="n">
-        <v>18686</v>
-      </c>
-      <c r="D14" t="n">
-        <v>225108</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2644621</v>
-      </c>
-      <c r="F14" t="n">
-        <v>271131</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3469467</v>
-      </c>
-      <c r="H14" t="n">
-        <v>499268</v>
-      </c>
-      <c r="I14" t="n">
-        <v>525.5599999999999</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1777824</v>
-      </c>
-      <c r="K14" t="n">
-        <v>6132774</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3549</v>
-      </c>
-      <c r="C15" t="n">
-        <v>18646</v>
-      </c>
-      <c r="D15" t="n">
-        <v>254670</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2815532</v>
-      </c>
-      <c r="F15" t="n">
-        <v>289026</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3531635</v>
-      </c>
-      <c r="H15" t="n">
-        <v>547245</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>1880817</v>
-      </c>
-      <c r="K15" t="n">
-        <v>6365813</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4117</v>
-      </c>
-      <c r="C16" t="n">
-        <v>20394</v>
-      </c>
-      <c r="D16" t="n">
-        <v>292195</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3065964</v>
-      </c>
-      <c r="F16" t="n">
-        <v>309736</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3736265</v>
-      </c>
-      <c r="H16" t="n">
-        <v>606048</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>2003785</v>
-      </c>
-      <c r="K16" t="n">
-        <v>6822623</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4784</v>
-      </c>
-      <c r="C17" t="n">
-        <v>25028</v>
-      </c>
-      <c r="D17" t="n">
-        <v>329141</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3421015</v>
-      </c>
-      <c r="F17" t="n">
-        <v>328500</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3901849</v>
-      </c>
-      <c r="H17" t="n">
-        <v>662425</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>2241648</v>
-      </c>
-      <c r="K17" t="n">
-        <v>7347892</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>5559</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>360914</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>335932</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>702405</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>6307</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>400438</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>354794</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>761539</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>7034</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>444092</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>366234</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>817360</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>7585</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>487112</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>371638</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>866335</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>8432</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
-        <v>510959</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>374771</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
-        <v>894162</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>901870</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
